--- a/paper/工程时间安排/工程进度.xlsx
+++ b/paper/工程时间安排/工程进度.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujiaxing/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{21F6CA35-D97E-4045-9C4E-DAC3A287CC4E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8223E2F1-1E2F-6249-AC4B-047EA35168F2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{246DC7F3-4F4A-4542-958A-AF5605B86A81}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="23680" windowHeight="17540" xr2:uid="{246DC7F3-4F4A-4542-958A-AF5605B86A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成体现请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成交易请求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,6 +80,13 @@
   <si>
     <t>对接测试</t>
   </si>
+  <si>
+    <t>完成提现请求</t>
+    <rPh sb="0" eb="11">
+      <t>ti'xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -92,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,7 +264,7 @@
                   <c:v>完成充值请求</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>完成体现请求</c:v>
+                  <c:v>完成提现请求</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>完成交易请求</c:v>
@@ -288,10 +291,10 @@
                   <c:v>43221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43235</c:v>
+                  <c:v>43239</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43216</c:v>
+                  <c:v>43217</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43220</c:v>
@@ -300,7 +303,7 @@
                   <c:v>43227</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43216</c:v>
+                  <c:v>43217</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43223</c:v>
@@ -309,10 +312,10 @@
                   <c:v>43227</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43228</c:v>
+                  <c:v>43235</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43227</c:v>
+                  <c:v>43242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,7 +377,7 @@
                   <c:v>完成充值请求</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>完成体现请求</c:v>
+                  <c:v>完成提现请求</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>完成交易请求</c:v>
@@ -401,10 +404,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7</c:v>
@@ -413,7 +416,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
@@ -422,10 +425,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1527,16 +1530,16 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1547,10 +1550,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1580,38 +1583,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>43235</v>
+        <v>43239</v>
       </c>
       <c r="C4" s="3">
-        <v>43246</v>
+        <v>43242</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D3:D11" si="0" xml:space="preserve"> C4 - B4</f>
-        <v>11</v>
+        <f xml:space="preserve"> C4 - B4</f>
+        <v>3</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>43216</v>
+        <v>43217</v>
       </c>
       <c r="C5" s="3">
         <v>43220</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="D4:D11" si="0" xml:space="preserve"> C5 - B5</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1641,24 +1644,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>43216</v>
+        <v>43217</v>
       </c>
       <c r="C8" s="3">
         <v>43223</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>43223</v>
@@ -1671,9 +1674,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>43227</v>
@@ -1686,33 +1689,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>43228</v>
+        <v>43235</v>
       </c>
       <c r="C11" s="3">
-        <v>43235</v>
+        <v>43239</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>43227</v>
+        <v>43242</v>
       </c>
       <c r="C12" s="3">
-        <v>43235</v>
+        <v>43246</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/paper/工程时间安排/工程进度.xlsx
+++ b/paper/工程时间安排/工程进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujiaxing/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8223E2F1-1E2F-6249-AC4B-047EA35168F2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{915B210A-4128-3F43-B878-B05BAABF765D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23680" windowHeight="17540" xr2:uid="{246DC7F3-4F4A-4542-958A-AF5605B86A81}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>模块名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">持续时间  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模块测试</t>
   </si>
   <si>
@@ -82,9 +78,21 @@
   </si>
   <si>
     <t>完成提现请求</t>
-    <rPh sb="0" eb="11">
+    <rPh sb="0" eb="6">
       <t>ti'xia</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">总时间  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +330,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D3C9-4120-B95B-06BBA42CF5D2}"/>
+              <c16:uniqueId val="{00000000-A05E-45F0-91CD-2E4CDD1598D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -335,7 +343,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>持续时间  </c:v>
+                  <c:v>已完成</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -404,7 +412,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -413,7 +421,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
@@ -422,20 +430,133 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D3C9-4120-B95B-06BBA42CF5D2}"/>
+              <c16:uniqueId val="{00000001-A05E-45F0-91CD-2E4CDD1598D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>未完成</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>代码框架搭建</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>确认接口准确</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>组内对接及实现缓存</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>完善清分部分</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>完成JSON对账文件创建</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>实现外部查询</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>完成充值请求</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>完成提现请求</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>完成交易请求</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>模块测试</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>对接测试</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A05E-45F0-91CD-2E4CDD1598D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -449,11 +570,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="154296991"/>
-        <c:axId val="149972575"/>
+        <c:axId val="1461172224"/>
+        <c:axId val="1352287184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154296991"/>
+        <c:axId val="1461172224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -496,7 +617,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149972575"/>
+        <c:crossAx val="1352287184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -504,7 +625,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149972575"/>
+        <c:axId val="1352287184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43246"/>
@@ -557,7 +678,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154296991"/>
+        <c:crossAx val="1461172224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1193,23 +1314,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="图表 6">
+        <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBEF1F3-D7EB-4DD5-95E0-CC1138F1A94B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48B363D-30EC-46DF-B6AE-22761F410C6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1530,7 +1651,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1550,7 +1671,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1563,8 +1690,14 @@
       <c r="C2" s="3">
         <v>43221</v>
       </c>
-      <c r="D2">
-        <f xml:space="preserve"> C2 - B2</f>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F11" si="0" xml:space="preserve"> C2 - B2</f>
         <v>5</v>
       </c>
     </row>
@@ -1578,8 +1711,14 @@
       <c r="C3" s="3">
         <v>43227</v>
       </c>
-      <c r="D3">
-        <f xml:space="preserve"> C3 - B3</f>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1593,11 +1732,16 @@
       <c r="C4" s="3">
         <v>43242</v>
       </c>
-      <c r="D4">
-        <f xml:space="preserve"> C4 - B4</f>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -1609,8 +1753,14 @@
       <c r="C5" s="3">
         <v>43220</v>
       </c>
-      <c r="D5">
-        <f t="shared" ref="D4:D11" si="0" xml:space="preserve"> C5 - B5</f>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1624,7 +1774,13 @@
       <c r="C6" s="3">
         <v>43227</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1639,7 +1795,14 @@
       <c r="C7" s="3">
         <v>43234</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E3:E12" si="1">F7 - D7</f>
+        <v>7</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1654,14 +1817,20 @@
       <c r="C8" s="3">
         <v>43223</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <v>43223</v>
@@ -1669,7 +1838,13 @@
       <c r="C9" s="3">
         <v>43227</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1684,14 +1859,20 @@
       <c r="C10" s="3">
         <v>43236</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>43235</v>
@@ -1699,14 +1880,20 @@
       <c r="C11" s="3">
         <v>43239</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>43242</v>
@@ -1714,7 +1901,13 @@
       <c r="C12" s="3">
         <v>43246</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
         <v>4</v>
       </c>
     </row>

--- a/paper/工程时间安排/工程进度.xlsx
+++ b/paper/工程时间安排/工程进度.xlsx
@@ -5,16 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujiaxing/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujiaxing/Documents/GitHub/ClearSettlementSystem/paper/工程时间安排/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{915B210A-4128-3F43-B878-B05BAABF765D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4701A17D-B167-824C-957C-4D2D67ADAEA0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23680" windowHeight="17540" xr2:uid="{246DC7F3-4F4A-4542-958A-AF5605B86A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$12</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$2:$D$12</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$2:$E$12</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -254,31 +264,31 @@
                   <c:v>代码框架搭建</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>完善清分部分</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>完成充值请求</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>完成JSON对账文件创建</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>确认接口准确</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>完成提现请求</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>实现外部查询</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>完成交易请求</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>模块测试</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>组内对接及实现缓存</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>完善清分部分</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>完成JSON对账文件创建</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>实现外部查询</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>完成充值请求</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>完成提现请求</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>完成交易请求</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>模块测试</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>对接测试</c:v>
@@ -296,31 +306,31 @@
                   <c:v>43216</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>43217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>43221</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>43223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43227</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43227</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43235</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>43239</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43217</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43227</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43217</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43223</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43227</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43235</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43242</c:v>
@@ -367,31 +377,31 @@
                   <c:v>代码框架搭建</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>完善清分部分</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>完成充值请求</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>完成JSON对账文件创建</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>确认接口准确</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>完成提现请求</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>实现外部查询</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>完成交易请求</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>模块测试</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>组内对接及实现缓存</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>完善清分部分</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>完成JSON对账文件创建</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>实现外部查询</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>完成充值请求</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>完成提现请求</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>完成交易请求</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>模块测试</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>对接测试</c:v>
@@ -409,25 +419,25 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -480,31 +490,31 @@
                   <c:v>代码框架搭建</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>完善清分部分</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>完成充值请求</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>完成JSON对账文件创建</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>确认接口准确</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>完成提现请求</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>实现外部查询</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>完成交易请求</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>模块测试</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>组内对接及实现缓存</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>完善清分部分</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>完成JSON对账文件创建</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>实现外部查询</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>完成充值请求</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>完成提现请求</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>完成交易请求</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>模块测试</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>对接测试</c:v>
@@ -525,7 +535,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -534,19 +544,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4</c:v>
@@ -762,6 +772,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1316,14 +1327,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>139701</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1348,7 +1359,262 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447524</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>30238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>120952</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直线箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503CE0C4-C896-3547-92B9-E302FFFF19DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7722810" y="3320143"/>
+          <a:ext cx="1" cy="1058333"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>453571</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>453571</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6048</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直线箭头连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED159B0-8851-D24D-9554-9680F47C554C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7728857" y="3011714"/>
+          <a:ext cx="0" cy="1058334"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.31205</cdr:x>
+      <cdr:y>0.61064</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.31211</cdr:x>
+      <cdr:y>0.77575</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="直线箭头连接符 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1937CFC1-885C-704B-AE04-35A253212327}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="1968500" y="2685142"/>
+          <a:ext cx="393" cy="726008"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78564</cdr:x>
+      <cdr:y>0.19805</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.7866</cdr:x>
+      <cdr:y>0.29432</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="6" name="直线箭头连接符 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7053DFD-C9E4-9B40-978C-DA7BC914FE9A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="4956024" y="870857"/>
+          <a:ext cx="6047" cy="423333"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.86042</cdr:x>
+      <cdr:y>0.12791</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.86042</cdr:x>
+      <cdr:y>0.22968</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="8" name="直线箭头连接符 7">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14D76A7-0770-C842-BFB9-B27D9FD98D4B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="5427738" y="562428"/>
+          <a:ext cx="0" cy="447524"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1650,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FF33A2-F5E1-48CB-8728-3A0BC03BCE85}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="210" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1697,198 +1963,198 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F11" si="0" xml:space="preserve"> C2 - B2</f>
+        <f xml:space="preserve"> C2 - B2</f>
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>43221</v>
+        <v>43217</v>
       </c>
       <c r="C3" s="3">
-        <v>43227</v>
+        <v>43220</v>
       </c>
       <c r="D3" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f xml:space="preserve"> C3 - B3</f>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>43239</v>
+        <v>43217</v>
       </c>
       <c r="C4" s="3">
-        <v>43242</v>
+        <v>43223</v>
       </c>
       <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f xml:space="preserve"> C4 - B4</f>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>43217</v>
+        <v>43220</v>
       </c>
       <c r="C5" s="3">
-        <v>43220</v>
+        <v>43227</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f xml:space="preserve"> C5 - B5</f>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43220</v>
+        <v>43221</v>
       </c>
       <c r="C6" s="3">
         <v>43227</v>
       </c>
       <c r="D6" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f xml:space="preserve"> C6 - B6</f>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
+        <v>43223</v>
+      </c>
+      <c r="C7" s="3">
         <v>43227</v>
       </c>
-      <c r="C7" s="3">
-        <v>43234</v>
-      </c>
       <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <f t="shared" ref="E3:E12" si="1">F7 - D7</f>
-        <v>7</v>
-      </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f xml:space="preserve"> C7 - B7</f>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>43217</v>
+        <v>43227</v>
       </c>
       <c r="C8" s="3">
-        <v>43223</v>
+        <v>43234</v>
       </c>
       <c r="D8" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <f>F8 - D8</f>
+        <v>7</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f xml:space="preserve"> C8 - B8</f>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>43223</v>
+        <v>43227</v>
       </c>
       <c r="C9" s="3">
-        <v>43227</v>
+        <v>43236</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f xml:space="preserve"> C9 - B9</f>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>43227</v>
+        <v>43235</v>
       </c>
       <c r="C10" s="3">
-        <v>43236</v>
+        <v>43239</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f xml:space="preserve"> C10 - B10</f>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2">
-        <v>43235</v>
+        <v>43239</v>
       </c>
       <c r="C11" s="3">
-        <v>43239</v>
+        <v>43242</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f xml:space="preserve"> C11 - B11</f>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1912,6 +2178,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B12" xr:uid="{9BC41C74-D0E7-4C41-B052-09050E3B76A7}">
+    <sortState ref="A2:F12">
+      <sortCondition ref="B1:B12"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
